--- a/资产负债表/688136.xlsx
+++ b/资产负债表/688136.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1180011923.69</v>
+        <v>1260434375.12</v>
       </c>
       <c r="P2" t="n">
-        <v>299247736.58</v>
+        <v>307629087.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>150958764.57</v>
-      </c>
-      <c r="R2" t="n">
-        <v>173.6281816038</v>
-      </c>
+        <v>161524508.23</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>302093579.69</v>
-      </c>
-      <c r="T2" t="n">
-        <v>24.671626642</v>
-      </c>
+        <v>308737190.24</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>138244166.57</v>
-      </c>
-      <c r="V2" t="n">
-        <v>62.153723824</v>
-      </c>
+        <v>148196292.68</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>483669312.06</v>
+        <v>469545000.39</v>
       </c>
       <c r="X2" t="n">
-        <v>132920892.55</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-1.8143716041</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>10886403.44</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>47.636283219</v>
-      </c>
+        <v>116105376.4</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>696342611.63</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>40.8289975665</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>38.1216114496</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>34.4016607543</v>
-      </c>
+        <v>790889374.73</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>147.2099380949</v>
+        <v>155.4964857511</v>
       </c>
       <c r="AG2" t="n">
-        <v>40.9885105692</v>
+        <v>37.2526336681</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688136.xlsx
+++ b/资产负债表/688136.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1260434375.12</v>
+        <v>743203940.23</v>
       </c>
       <c r="P2" t="n">
-        <v>307629087.06</v>
+        <v>269245209.19</v>
       </c>
       <c r="Q2" t="n">
-        <v>161524508.23</v>
+        <v>65907719.84</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>308737190.24</v>
+        <v>190194449.76</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>148196292.68</v>
+        <v>90685822.15000001</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>469545000.39</v>
+        <v>530967737.62</v>
       </c>
       <c r="X2" t="n">
-        <v>116105376.4</v>
+        <v>150292522.79</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>5646952.63</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>790889374.73</v>
+        <v>212236202.61</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>155.4964857511</v>
+        <v>72.0340731336</v>
       </c>
       <c r="AG2" t="n">
-        <v>37.2526336681</v>
+        <v>71.4430735466</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
